--- a/similarities/split_global/harmonic_similarity_timestamps_48.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,726 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:00.939000', '0:00:03.682000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C:min', 'G:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['D:7', 'G:min', 'D:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+          <t>('0:00:09.660000', '0:00:12.510000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+          <t>('0:00:42.290000', '0:00:47.770000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=9.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=42.29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['D', 'G', 'D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:04:21.828000', '0:04:41.315000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:26.120000')]</t>
+          <t>('0:00:07.525011', '0:00:20.319206')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['C:maj/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:36.140000', '0:00:37.580000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:56.440000', '0:01:06.340000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=36.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=56.44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:59.680000', '0:01:05.780000')]</t>
+          <t>('0:00:21.940000', '0:00:27.520000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=90.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=59.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['C#:min', 'F#:sus4', 'F#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:min', 'G:sus4', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:32.897437', '0:00:38.725646')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:01:44.650000', '0:01:50.242000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=32.897437</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=104.65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B', 'E/5', 'B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab:7', 'Db']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:07.220000', '0:01:12.440000')]</t>
+          <t>('0:00:55.629773', '0:01:07.541609')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:59.730000', '0:01:03.930000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=67.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
+          <t>['C:7', 'F', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:12.580000', '0:00:20.980000')]</t>
+          <t>('0:00:39.386636', '0:00:52.146870')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:01:10.560000', '0:01:14.380000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=12.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=70.56</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18', '0:00:26.460000')]</t>
+          <t>('0:00:28.921995', '0:00:33.101587')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'B', 'E:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'B', 'E:min']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:19.731000', '0:00:27.713000')]</t>
+          <t>('0:00:09.660000', '0:00:10.950000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:08.692607', '0:01:14.544036')]</t>
+          <t>('0:01:06.800000', '0:01:13.560000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=19.731']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=68.692607']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=66.8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:min', 'C:min/G', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:35.888000', '0:00:38.359000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:27.200000')]</t>
+          <t>('0:00:00.500000', '0:00:03.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:00.480000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:7', 'Db', 'Ab:7', 'Db']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:42.920000', '0:00:50.710000')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:12.070000', '0:01:19.130000')]</t>
+          <t>('0:00:16.560000', '0:00:37.820000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=42.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=72.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:41.170000', '0:00:46.770000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:43.540000', '0:01:00')]</t>
+          <t>('0:00:21.040000', '0:00:34.940000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=41.17</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=21.04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:51.717210', '0:00:54.666145')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=51.71721']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
